--- a/Dataset for Decision tree.xlsx
+++ b/Dataset for Decision tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alikhansainov/Desktop/Python/ML-project/ML-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1F5C1-6A73-D549-BAE0-A8ED99C89FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30BB57-F06A-364D-B3F1-6362A7005AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{2A528876-7B88-7C43-A3F5-1012E72E7171}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,7 +499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27871C5E-838F-B24A-89B8-FAF40361CE77}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
